--- a/Documentation/URStreamSight User Story Maps.xlsx
+++ b/Documentation/URStreamSight User Story Maps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Municipality Analyst,Municipality Leader</t>
   </si>
@@ -110,49 +110,67 @@
     <t>Add Additional Report</t>
   </si>
   <si>
+    <t>Setup CICD for front end</t>
+  </si>
+  <si>
+    <t>Add Recycling Overview Page</t>
+  </si>
+  <si>
     <t>Create Web App Project</t>
   </si>
   <si>
-    <t>Add Recycling Overview Page</t>
-  </si>
-  <si>
     <t>Install necessary libraries</t>
   </si>
   <si>
+    <t>Release 2 MVP</t>
+  </si>
+  <si>
     <t>Add Login Page</t>
   </si>
   <si>
-    <t>Release 2 MVP</t>
+    <t>Add heat map of contaminant disposal</t>
+  </si>
+  <si>
+    <t>Add Aggregate Recycling Data</t>
+  </si>
+  <si>
+    <t>Add Problem Neighbourhood information</t>
+  </si>
+  <si>
+    <t>Create API Endpoints</t>
   </si>
   <si>
     <t>Tie in API calls and database storage</t>
   </si>
   <si>
-    <t>Add heat map of contaminant disposal</t>
-  </si>
-  <si>
-    <t>Add Aggregate Recycling Data</t>
-  </si>
-  <si>
-    <t>Add Problem Neighbourhood information</t>
+    <t>Update CICD pipeline</t>
+  </si>
+  <si>
+    <t>Release 3 MVP</t>
+  </si>
+  <si>
+    <t>Add additional API endpoints</t>
+  </si>
+  <si>
+    <t>Add Zoom Function</t>
+  </si>
+  <si>
+    <t>Add Export Function</t>
+  </si>
+  <si>
+    <t>Add Column Hiding</t>
   </si>
   <si>
     <t>Add Login Functionality</t>
   </si>
   <si>
-    <t>Release 3 MVP</t>
-  </si>
-  <si>
-    <t>Add Zoom Function</t>
-  </si>
-  <si>
-    <t>Add Export Function</t>
-  </si>
-  <si>
-    <t>Add Column Hiding</t>
-  </si>
-  <si>
     <t>Add tool tip on hover</t>
+  </si>
+  <si>
+    <t>Release 4 Future Release MVP</t>
+  </si>
+  <si>
+    <t>Add Test and Staging server to CICD pipeline</t>
   </si>
 </sst>
 </file>
@@ -255,7 +273,7 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00ABFF" tint="0"/>
+        <color rgb="FF999999" tint="0"/>
       </left>
       <right style="thin">
         <color rgb="FFD2D2D2" tint="0"/>
@@ -270,7 +288,7 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF999999" tint="0"/>
+        <color rgb="FF00ABFF" tint="0"/>
       </left>
       <right style="thin">
         <color rgb="FFD2D2D2" tint="0"/>
@@ -316,7 +334,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
@@ -451,13 +469,13 @@
     </row>
     <row r="20" ht="10" customHeight="1"/>
     <row r="21" ht="72" customHeight="1">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -466,7 +484,7 @@
       <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -484,37 +502,37 @@
     </row>
     <row r="26" ht="10" customHeight="1"/>
     <row r="27" ht="72" customHeight="1">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" ht="10" customHeight="1"/>
     <row r="29" ht="72" customHeight="1">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="30" ht="10" customHeight="1"/>
     <row r="31" ht="72" customHeight="1">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" ht="10" customHeight="1"/>
     <row r="33" ht="72" customHeight="1">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -532,16 +550,16 @@
     </row>
     <row r="36" ht="10" customHeight="1"/>
     <row r="37" ht="72" customHeight="1">
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -552,33 +570,69 @@
       </c>
     </row>
     <row r="40" ht="10" customHeight="1"/>
-    <row r="41">
-      <c r="B41" s="4" t="s">
+    <row r="41" ht="72" customHeight="1">
+      <c r="B41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
     </row>
     <row r="42" ht="10" customHeight="1"/>
     <row r="43" ht="72" customHeight="1">
-      <c r="D43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="7" t="s">
+    </row>
+    <row r="44" ht="10" customHeight="1"/>
+    <row r="45">
+      <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" ht="10" customHeight="1"/>
+    <row r="47" ht="72" customHeight="1">
+      <c r="B47" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" ht="10" customHeight="1"/>
-    <row r="45" ht="72" customHeight="1">
-      <c r="D45" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>46</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" ht="10" customHeight="1"/>
+    <row r="49" ht="72" customHeight="1">
+      <c r="B49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" ht="10" customHeight="1"/>
+    <row r="51">
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" ht="10" customHeight="1"/>
+    <row r="53" ht="72" customHeight="1">
+      <c r="B53" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
